--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value560.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value560.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4290687681919225</v>
+        <v>1.151145577430725</v>
       </c>
       <c r="B1">
-        <v>0.6938002604395744</v>
+        <v>1.326534748077393</v>
       </c>
       <c r="C1">
-        <v>1.910335611821846</v>
+        <v>1.672534227371216</v>
       </c>
       <c r="D1">
-        <v>3.448364804441858</v>
+        <v>3.377491235733032</v>
       </c>
       <c r="E1">
-        <v>2.098381168040505</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
